--- a/Engineering Tests/IE21 1.3 180607.xlsx
+++ b/Engineering Tests/IE21 1.3 180607.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\natha\documents\Dropbox\Python\jpnotebooks\Engineering Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB4DA5A-A13D-4190-AACA-7109CD58374D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16B5C957-0900-4E0A-9C58-E371263C0979}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
@@ -735,9 +735,6 @@
           <c:tx>
             <c:v>pHPV</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'IE21 1.3 180607'!$CR$2:$CR$37</c:f>
@@ -994,7 +991,8 @@
         <c:axId val="537536216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1010,6 +1008,8 @@
         <c:axId val="537538184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.6"/>
+          <c:min val="7.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1023,10 +1023,6 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1060,9 +1056,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1319,6 +1312,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537541464"/>
+        <c:axId val="537536216"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1823,14 +1830,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537541464"/>
-        <c:axId val="537536216"/>
+        <c:axId val="470502704"/>
+        <c:axId val="470509920"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="537541464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1856,6 +1864,35 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="537541464"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470509920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="470502704"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470502704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="470509920"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2416,7 +2453,8 @@
         <c:axId val="537541464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="6"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2880,7 +2918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BH7" sqref="BH7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
